--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_VIANA DO CASTELO.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_VIANA DO CASTELO.xlsx
@@ -597,64 +597,64 @@
         <v>24549</v>
       </c>
       <c r="H2" t="n">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="I2" t="n">
-        <v>2421</v>
+        <v>2531</v>
       </c>
       <c r="J2" t="n">
-        <v>10251</v>
+        <v>10109</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
-        <v>2856</v>
+        <v>2731</v>
       </c>
       <c r="M2" t="n">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="N2" t="n">
-        <v>1719</v>
+        <v>1831</v>
       </c>
       <c r="O2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>130</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1095</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1731</v>
+      </c>
+      <c r="U2" t="n">
+        <v>148</v>
+      </c>
+      <c r="V2" t="n">
+        <v>15644</v>
+      </c>
+      <c r="W2" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>24</v>
-      </c>
-      <c r="R2" t="n">
-        <v>133</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1160</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1718</v>
-      </c>
-      <c r="U2" t="n">
-        <v>141</v>
-      </c>
-      <c r="V2" t="n">
-        <v>15612</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
       <c r="X2" t="n">
-        <v>15662</v>
+        <v>15714</v>
       </c>
       <c r="Y2" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="AA2" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
